--- a/translation/xlsx/_tsum_003_2.xlsx
+++ b/translation/xlsx/_tsum_003_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="630">
   <si>
     <t>actor</t>
   </si>
@@ -549,13 +549,16 @@
     <t xml:space="preserve"> Okamura-kun, too.</t>
   </si>
   <si>
+    <t xml:space="preserve">뭐야, 오카무라 군까지. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐야, 오키무라군도. </t>
+  </si>
+  <si>
+    <t>뭐야, 오카무라군도.</t>
+  </si>
+  <si>
     <t xml:space="preserve">뭐야, 오키무라 군까지. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">뭐야, 오키무라군도. </t>
-  </si>
-  <si>
-    <t>뭐야, 오카무라군도.</t>
   </si>
   <si>
     <t>二人とも当選してたのかー。」</t>
@@ -3735,7 +3738,7 @@
       <c r="C36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G36" s="3"/>
@@ -3750,13 +3753,13 @@
         <v>179</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -3769,13 +3772,13 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
@@ -3785,19 +3788,19 @@
       <c r="K37" s="3"/>
       <c r="L37" s="7"/>
       <c r="M37" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N37" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="N37" t="s">
-        <v>184</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -3812,13 +3815,13 @@
         <v>156</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3826,19 +3829,19 @@
       <c r="K38" s="3"/>
       <c r="L38" s="7"/>
       <c r="M38" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N38" t="s">
+        <v>189</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -3851,13 +3854,13 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="3"/>
@@ -3867,19 +3870,19 @@
       <c r="K39" s="3"/>
       <c r="L39" s="7"/>
       <c r="M39" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -3894,13 +3897,13 @@
         <v>156</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="3"/>
@@ -3910,19 +3913,19 @@
       <c r="K40" s="3"/>
       <c r="L40" s="7"/>
       <c r="M40" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -3935,13 +3938,13 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="3"/>
@@ -3951,19 +3954,19 @@
       <c r="K41" s="3"/>
       <c r="L41" s="7"/>
       <c r="M41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N41" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="N41" t="s">
-        <v>205</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -3978,13 +3981,13 @@
         <v>156</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="3"/>
@@ -3994,19 +3997,19 @@
       <c r="K42" s="3"/>
       <c r="L42" s="7"/>
       <c r="M42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="N42" t="s">
-        <v>210</v>
-      </c>
-      <c r="O42" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -4018,16 +4021,16 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="3"/>
@@ -4037,19 +4040,19 @@
       <c r="K43" s="3"/>
       <c r="L43" s="7"/>
       <c r="M43" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="N43" t="s">
+        <v>217</v>
+      </c>
+      <c r="O43" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="N43" t="s">
-        <v>216</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -4061,16 +4064,16 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="3"/>
@@ -4080,19 +4083,19 @@
       <c r="K44" s="3"/>
       <c r="L44" s="7"/>
       <c r="M44" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" t="s">
+        <v>222</v>
+      </c>
+      <c r="O44" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="N44" t="s">
-        <v>221</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -4104,16 +4107,16 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="3"/>
@@ -4123,19 +4126,19 @@
       <c r="K45" s="3"/>
       <c r="L45" s="7"/>
       <c r="M45" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -4148,13 +4151,13 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="3"/>
@@ -4164,19 +4167,19 @@
       <c r="K46" s="3"/>
       <c r="L46" s="7"/>
       <c r="M46" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N46" t="s">
+        <v>233</v>
+      </c>
+      <c r="O46" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="N46" t="s">
-        <v>232</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -4188,16 +4191,16 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -4205,19 +4208,19 @@
       <c r="K47" s="3"/>
       <c r="L47" s="7"/>
       <c r="M47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N47" t="s">
+        <v>238</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="N47" t="s">
-        <v>237</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -4229,16 +4232,16 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="3"/>
@@ -4248,19 +4251,19 @@
       <c r="K48" s="3"/>
       <c r="L48" s="7"/>
       <c r="M48" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N48" t="s">
+        <v>242</v>
+      </c>
+      <c r="O48" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4273,13 +4276,13 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="3"/>
@@ -4289,19 +4292,19 @@
       <c r="K49" s="3"/>
       <c r="L49" s="7"/>
       <c r="M49" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N49" t="s">
+        <v>246</v>
+      </c>
+      <c r="O49" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -4314,13 +4317,13 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="3"/>
@@ -4330,19 +4333,19 @@
       <c r="K50" s="3"/>
       <c r="L50" s="7"/>
       <c r="M50" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N50" t="s">
+        <v>251</v>
+      </c>
+      <c r="O50" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="N50" t="s">
-        <v>250</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -4355,13 +4358,13 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="3"/>
@@ -4371,19 +4374,19 @@
       <c r="K51" s="3"/>
       <c r="L51" s="7"/>
       <c r="M51" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -4395,16 +4398,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -4412,19 +4415,19 @@
       <c r="K52" s="3"/>
       <c r="L52" s="7"/>
       <c r="M52" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N52" t="s">
+        <v>261</v>
+      </c>
+      <c r="O52" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -4437,13 +4440,13 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -4451,19 +4454,19 @@
       <c r="K53" s="3"/>
       <c r="L53" s="7"/>
       <c r="M53" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N53" t="s">
+        <v>265</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -4475,16 +4478,16 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -4492,19 +4495,19 @@
       <c r="K54" s="3"/>
       <c r="L54" s="7"/>
       <c r="M54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N54" t="s">
+        <v>270</v>
+      </c>
+      <c r="O54" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="N54" t="s">
-        <v>269</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -4517,13 +4520,13 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="3"/>
@@ -4533,19 +4536,19 @@
       <c r="K55" s="3"/>
       <c r="L55" s="7"/>
       <c r="M55" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N55" t="s">
+        <v>274</v>
+      </c>
+      <c r="O55" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -4558,13 +4561,13 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="3"/>
@@ -4574,19 +4577,19 @@
       <c r="K56" s="3"/>
       <c r="L56" s="7"/>
       <c r="M56" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N56" t="s">
+        <v>274</v>
+      </c>
+      <c r="O56" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
@@ -4599,13 +4602,13 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="3"/>
@@ -4615,19 +4618,19 @@
       <c r="K57" s="3"/>
       <c r="L57" s="7"/>
       <c r="M57" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N57" t="s">
+        <v>274</v>
+      </c>
+      <c r="O57" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -4640,13 +4643,13 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -4654,19 +4657,19 @@
       <c r="K58" s="3"/>
       <c r="L58" s="7"/>
       <c r="M58" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N58" t="s">
+        <v>278</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -4679,13 +4682,13 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="3"/>
@@ -4695,19 +4698,19 @@
       <c r="K59" s="3"/>
       <c r="L59" s="7"/>
       <c r="M59" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N59" t="s">
+        <v>282</v>
+      </c>
+      <c r="O59" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="O59" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
@@ -4722,13 +4725,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="3"/>
@@ -4738,19 +4741,19 @@
       <c r="K60" s="3"/>
       <c r="L60" s="7"/>
       <c r="M60" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N60" t="s">
+        <v>286</v>
+      </c>
+      <c r="O60" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="O60" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -4763,13 +4766,13 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -4777,19 +4780,19 @@
       <c r="K61" s="3"/>
       <c r="L61" s="7"/>
       <c r="M61" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N61" t="s">
+        <v>290</v>
+      </c>
+      <c r="O61" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
@@ -4802,13 +4805,13 @@
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="3"/>
@@ -4818,19 +4821,19 @@
       <c r="K62" s="3"/>
       <c r="L62" s="7"/>
       <c r="M62" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N62" t="s">
+        <v>295</v>
+      </c>
+      <c r="O62" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="N62" t="s">
-        <v>294</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -4843,13 +4846,13 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="3"/>
@@ -4859,19 +4862,19 @@
       <c r="K63" s="3"/>
       <c r="L63" s="7"/>
       <c r="M63" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="N63" t="s">
+        <v>300</v>
+      </c>
+      <c r="O63" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="N63" t="s">
-        <v>299</v>
-      </c>
-      <c r="O63" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
@@ -4884,13 +4887,13 @@
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="3"/>
@@ -4900,19 +4903,19 @@
       <c r="K64" s="3"/>
       <c r="L64" s="7"/>
       <c r="M64" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
@@ -4925,13 +4928,13 @@
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="3"/>
@@ -4941,22 +4944,22 @@
       <c r="K65" s="8"/>
       <c r="L65" s="7"/>
       <c r="M65" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T65" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -4970,13 +4973,13 @@
         <v>37</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="3"/>
@@ -4986,19 +4989,19 @@
       <c r="K66" s="3"/>
       <c r="L66" s="7"/>
       <c r="M66" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N66" t="s">
+        <v>317</v>
+      </c>
+      <c r="O66" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
@@ -5011,13 +5014,13 @@
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="3"/>
@@ -5027,19 +5030,19 @@
       <c r="K67" s="3"/>
       <c r="L67" s="7"/>
       <c r="M67" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="N67" t="s">
+        <v>322</v>
+      </c>
+      <c r="O67" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="N67" t="s">
-        <v>321</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
@@ -5052,13 +5055,13 @@
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -5066,19 +5069,19 @@
       <c r="K68" s="3"/>
       <c r="L68" s="7"/>
       <c r="M68" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="N68" t="s">
+        <v>327</v>
+      </c>
+      <c r="O68" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="N68" t="s">
-        <v>326</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -5091,13 +5094,13 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="3"/>
@@ -5107,19 +5110,19 @@
       <c r="K69" s="3"/>
       <c r="L69" s="7"/>
       <c r="M69" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="N69" t="s">
+        <v>332</v>
+      </c>
+      <c r="O69" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="N69" t="s">
-        <v>331</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
@@ -5132,13 +5135,13 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="3"/>
@@ -5148,19 +5151,19 @@
       <c r="K70" s="3"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="N70" t="s">
+        <v>337</v>
+      </c>
+      <c r="O70" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="N70" t="s">
-        <v>336</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -5172,16 +5175,16 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="3"/>
@@ -5191,19 +5194,19 @@
       <c r="K71" s="3"/>
       <c r="L71" s="7"/>
       <c r="M71" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N71" t="s">
+        <v>342</v>
+      </c>
+      <c r="O71" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
@@ -5215,16 +5218,16 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="3"/>
@@ -5234,19 +5237,19 @@
       <c r="K72" s="3"/>
       <c r="L72" s="7"/>
       <c r="M72" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N72" t="s">
+        <v>347</v>
+      </c>
+      <c r="O72" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
@@ -5259,13 +5262,13 @@
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="3"/>
@@ -5275,19 +5278,19 @@
       <c r="K73" s="3"/>
       <c r="L73" s="7"/>
       <c r="M73" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N73" t="s">
+        <v>347</v>
+      </c>
+      <c r="O73" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
@@ -5300,13 +5303,13 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="3"/>
@@ -5316,19 +5319,19 @@
       <c r="K74" s="3"/>
       <c r="L74" s="7"/>
       <c r="M74" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N74" t="s">
+        <v>352</v>
+      </c>
+      <c r="O74" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
@@ -5343,13 +5346,13 @@
         <v>50</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="3"/>
@@ -5359,19 +5362,19 @@
       <c r="K75" s="3"/>
       <c r="L75" s="7"/>
       <c r="M75" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N75" t="s">
+        <v>356</v>
+      </c>
+      <c r="O75" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
@@ -5384,13 +5387,13 @@
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="3"/>
@@ -5400,19 +5403,19 @@
       <c r="K76" s="3"/>
       <c r="L76" s="7"/>
       <c r="M76" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="N76" t="s">
+        <v>361</v>
+      </c>
+      <c r="O76" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="N76" t="s">
-        <v>360</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
@@ -5425,13 +5428,13 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -5441,21 +5444,21 @@
       <c r="K77" s="3"/>
       <c r="L77" s="7"/>
       <c r="M77" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="N77" t="s">
+        <v>366</v>
+      </c>
+      <c r="O77" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="N77" t="s">
-        <v>365</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>363</v>
-      </c>
       <c r="P77" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
@@ -5468,13 +5471,13 @@
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="3"/>
@@ -5484,19 +5487,19 @@
       <c r="K78" s="3"/>
       <c r="L78" s="7"/>
       <c r="M78" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N78" t="s">
+        <v>371</v>
+      </c>
+      <c r="O78" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
@@ -5508,16 +5511,16 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="3"/>
@@ -5527,19 +5530,19 @@
       <c r="K79" s="3"/>
       <c r="L79" s="7"/>
       <c r="M79" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O79" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>373</v>
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
@@ -5552,13 +5555,13 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="3"/>
@@ -5568,19 +5571,19 @@
       <c r="K80" s="3"/>
       <c r="L80" s="7"/>
       <c r="M80" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="N80" t="s">
+        <v>380</v>
+      </c>
+      <c r="O80" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="N80" t="s">
-        <v>379</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
@@ -5593,13 +5596,13 @@
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="3"/>
@@ -5609,19 +5612,19 @@
       <c r="K81" s="3"/>
       <c r="L81" s="7"/>
       <c r="M81" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="N81" t="s">
+        <v>385</v>
+      </c>
+      <c r="O81" s="10" t="s">
         <v>383</v>
-      </c>
-      <c r="N81" t="s">
-        <v>384</v>
-      </c>
-      <c r="O81" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
@@ -5634,13 +5637,13 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="3"/>
@@ -5650,19 +5653,19 @@
       <c r="K82" s="3"/>
       <c r="L82" s="7"/>
       <c r="M82" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="N82" t="s">
+        <v>390</v>
+      </c>
+      <c r="O82" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="N82" t="s">
-        <v>389</v>
-      </c>
-      <c r="O82" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
@@ -5674,16 +5677,16 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="3"/>
@@ -5693,19 +5696,19 @@
       <c r="K83" s="3"/>
       <c r="L83" s="7"/>
       <c r="M83" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="N83" t="s">
+        <v>396</v>
+      </c>
+      <c r="O83" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="N83" t="s">
-        <v>395</v>
-      </c>
-      <c r="O83" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
@@ -5718,13 +5721,13 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="3"/>
@@ -5734,19 +5737,19 @@
       <c r="K84" s="3"/>
       <c r="L84" s="7"/>
       <c r="M84" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N84" t="s">
+        <v>400</v>
+      </c>
+      <c r="O84" s="10" t="s">
         <v>399</v>
-      </c>
-      <c r="O84" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
@@ -5759,13 +5762,13 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="3"/>
@@ -5775,19 +5778,19 @@
       <c r="K85" s="3"/>
       <c r="L85" s="7"/>
       <c r="M85" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="N85" t="s">
+        <v>405</v>
+      </c>
+      <c r="O85" s="10" t="s">
         <v>403</v>
-      </c>
-      <c r="N85" t="s">
-        <v>404</v>
-      </c>
-      <c r="O85" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
       <c r="S85" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
@@ -5800,13 +5803,13 @@
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="3"/>
@@ -5816,19 +5819,19 @@
       <c r="K86" s="3"/>
       <c r="L86" s="7"/>
       <c r="M86" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="N86" t="s">
+        <v>410</v>
+      </c>
+      <c r="O86" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="N86" t="s">
-        <v>409</v>
-      </c>
-      <c r="O86" s="10" t="s">
-        <v>407</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
       <c r="S86" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
@@ -5841,13 +5844,13 @@
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="3"/>
@@ -5857,19 +5860,19 @@
       <c r="K87" s="3"/>
       <c r="L87" s="7"/>
       <c r="M87" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N87" t="s">
+        <v>414</v>
+      </c>
+      <c r="O87" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="O87" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
       <c r="S87" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
@@ -5882,13 +5885,13 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="3"/>
@@ -5898,19 +5901,19 @@
       <c r="K88" s="3"/>
       <c r="L88" s="7"/>
       <c r="M88" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="N88" t="s">
+        <v>419</v>
+      </c>
+      <c r="O88" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="N88" t="s">
-        <v>418</v>
-      </c>
-      <c r="O88" s="10" t="s">
-        <v>416</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
       <c r="S88" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
@@ -5925,13 +5928,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="3"/>
@@ -5941,19 +5944,19 @@
       <c r="K89" s="3"/>
       <c r="L89" s="7"/>
       <c r="M89" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N89" t="s">
+        <v>423</v>
+      </c>
+      <c r="O89" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="O89" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
       <c r="S89" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
@@ -5966,13 +5969,13 @@
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="3"/>
@@ -5982,19 +5985,19 @@
       <c r="K90" s="3"/>
       <c r="L90" s="7"/>
       <c r="M90" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="N90" t="s">
+        <v>428</v>
+      </c>
+      <c r="O90" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="N90" t="s">
-        <v>427</v>
-      </c>
-      <c r="O90" s="10" t="s">
-        <v>425</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
@@ -6006,16 +6009,16 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="3"/>
@@ -6025,19 +6028,19 @@
       <c r="K91" s="3"/>
       <c r="L91" s="7"/>
       <c r="M91" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N91" t="s">
+        <v>432</v>
+      </c>
+      <c r="O91" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="O91" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
       <c r="S91" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
@@ -6050,13 +6053,13 @@
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="3"/>
@@ -6066,19 +6069,19 @@
       <c r="K92" s="3"/>
       <c r="L92" s="7"/>
       <c r="M92" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N92" t="s">
+        <v>436</v>
+      </c>
+      <c r="O92" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="O92" s="10" t="s">
-        <v>434</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
       <c r="S92" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
@@ -6093,13 +6096,13 @@
         <v>156</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="3"/>
@@ -6109,19 +6112,19 @@
       <c r="K93" s="3"/>
       <c r="L93" s="7"/>
       <c r="M93" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="N93" t="s">
+        <v>441</v>
+      </c>
+      <c r="O93" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="N93" t="s">
-        <v>440</v>
-      </c>
-      <c r="O93" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
       <c r="S93" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
@@ -6134,13 +6137,13 @@
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="3"/>
@@ -6150,19 +6153,19 @@
       <c r="K94" s="3"/>
       <c r="L94" s="7"/>
       <c r="M94" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="N94" t="s">
+        <v>446</v>
+      </c>
+      <c r="O94" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="N94" t="s">
-        <v>445</v>
-      </c>
-      <c r="O94" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
       <c r="S94" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
@@ -6177,13 +6180,13 @@
         <v>156</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="3"/>
@@ -6193,19 +6196,19 @@
       <c r="K95" s="3"/>
       <c r="L95" s="7"/>
       <c r="M95" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="N95" t="s">
+        <v>451</v>
+      </c>
+      <c r="O95" s="10" t="s">
         <v>449</v>
-      </c>
-      <c r="N95" t="s">
-        <v>450</v>
-      </c>
-      <c r="O95" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
@@ -6218,13 +6221,13 @@
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="3"/>
@@ -6234,19 +6237,19 @@
       <c r="K96" s="3"/>
       <c r="L96" s="7"/>
       <c r="M96" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N96" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
       <c r="S96" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
@@ -6259,13 +6262,13 @@
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="3"/>
@@ -6275,19 +6278,19 @@
       <c r="K97" s="3"/>
       <c r="L97" s="7"/>
       <c r="M97" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="N97" t="s">
+        <v>462</v>
+      </c>
+      <c r="O97" s="14" t="s">
         <v>460</v>
-      </c>
-      <c r="N97" t="s">
-        <v>461</v>
-      </c>
-      <c r="O97" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
       <c r="S97" s="14" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
@@ -6302,13 +6305,13 @@
         <v>156</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="3"/>
@@ -6318,19 +6321,19 @@
       <c r="K98" s="3"/>
       <c r="L98" s="7"/>
       <c r="M98" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="N98" t="s">
+        <v>467</v>
+      </c>
+      <c r="O98" s="10" t="s">
         <v>465</v>
-      </c>
-      <c r="N98" t="s">
-        <v>466</v>
-      </c>
-      <c r="O98" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
       <c r="S98" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
@@ -6343,13 +6346,13 @@
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="3"/>
@@ -6359,19 +6362,19 @@
       <c r="K99" s="3"/>
       <c r="L99" s="7"/>
       <c r="M99" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="N99" t="s">
+        <v>472</v>
+      </c>
+      <c r="O99" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="N99" t="s">
-        <v>471</v>
-      </c>
-      <c r="O99" s="10" t="s">
-        <v>469</v>
       </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
       <c r="S99" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
@@ -6384,13 +6387,13 @@
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="3"/>
@@ -6400,19 +6403,19 @@
       <c r="K100" s="3"/>
       <c r="L100" s="7"/>
       <c r="M100" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N100" t="s">
+        <v>477</v>
+      </c>
+      <c r="O100" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="N100" t="s">
-        <v>476</v>
-      </c>
-      <c r="O100" s="10" t="s">
-        <v>474</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
       <c r="S100" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
@@ -6424,16 +6427,16 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="3"/>
@@ -6443,19 +6446,19 @@
       <c r="K101" s="3"/>
       <c r="L101" s="7"/>
       <c r="M101" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="N101" t="s">
+        <v>482</v>
+      </c>
+      <c r="O101" s="10" t="s">
         <v>480</v>
-      </c>
-      <c r="N101" t="s">
-        <v>481</v>
-      </c>
-      <c r="O101" s="10" t="s">
-        <v>479</v>
       </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
       <c r="S101" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
@@ -6468,13 +6471,13 @@
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="3"/>
@@ -6484,19 +6487,19 @@
       <c r="K102" s="3"/>
       <c r="L102" s="7"/>
       <c r="M102" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N102" t="s">
+        <v>486</v>
+      </c>
+      <c r="O102" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="O102" s="10" t="s">
-        <v>484</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
       <c r="S102" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
@@ -6509,13 +6512,13 @@
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="3"/>
@@ -6525,19 +6528,19 @@
       <c r="K103" s="3"/>
       <c r="L103" s="7"/>
       <c r="M103" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="N103" t="s">
+        <v>491</v>
+      </c>
+      <c r="O103" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="N103" t="s">
-        <v>490</v>
-      </c>
-      <c r="O103" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
       <c r="S103" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
@@ -6550,13 +6553,13 @@
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="3"/>
@@ -6566,19 +6569,19 @@
       <c r="K104" s="3"/>
       <c r="L104" s="7"/>
       <c r="M104" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="N104" t="s">
+        <v>496</v>
+      </c>
+      <c r="O104" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="N104" t="s">
-        <v>495</v>
-      </c>
-      <c r="O104" s="10" t="s">
-        <v>493</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
       <c r="S104" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
@@ -6590,16 +6593,16 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="3"/>
@@ -6609,19 +6612,19 @@
       <c r="K105" s="3"/>
       <c r="L105" s="7"/>
       <c r="M105" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N105" t="s">
+        <v>500</v>
+      </c>
+      <c r="O105" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="O105" s="10" t="s">
-        <v>498</v>
       </c>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
       <c r="S105" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
@@ -6634,13 +6637,13 @@
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="3"/>
@@ -6650,19 +6653,19 @@
       <c r="K106" s="3"/>
       <c r="L106" s="7"/>
       <c r="M106" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N106" t="s">
+        <v>504</v>
+      </c>
+      <c r="O106" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="O106" s="10" t="s">
-        <v>502</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
       <c r="S106" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
@@ -6675,13 +6678,13 @@
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="3"/>
@@ -6691,19 +6694,19 @@
       <c r="K107" s="3"/>
       <c r="L107" s="7"/>
       <c r="M107" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="N107" t="s">
+        <v>509</v>
+      </c>
+      <c r="O107" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="N107" t="s">
-        <v>508</v>
-      </c>
-      <c r="O107" s="10" t="s">
-        <v>506</v>
       </c>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
       <c r="S107" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
@@ -6716,13 +6719,13 @@
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="3"/>
@@ -6732,19 +6735,19 @@
       <c r="K108" s="3"/>
       <c r="L108" s="7"/>
       <c r="M108" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="N108" t="s">
+        <v>514</v>
+      </c>
+      <c r="O108" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="N108" t="s">
-        <v>513</v>
-      </c>
-      <c r="O108" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
       <c r="S108" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
@@ -6759,13 +6762,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="3"/>
@@ -6775,19 +6778,19 @@
       <c r="K109" s="3"/>
       <c r="L109" s="7"/>
       <c r="M109" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="N109" t="s">
+        <v>519</v>
+      </c>
+      <c r="O109" s="10" t="s">
         <v>517</v>
-      </c>
-      <c r="N109" t="s">
-        <v>518</v>
-      </c>
-      <c r="O109" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
       <c r="S109" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
@@ -6802,13 +6805,13 @@
         <v>105</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="3"/>
@@ -6818,19 +6821,19 @@
       <c r="K110" s="3"/>
       <c r="L110" s="7"/>
       <c r="M110" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="N110" t="s">
+        <v>524</v>
+      </c>
+      <c r="O110" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="N110" t="s">
-        <v>523</v>
-      </c>
-      <c r="O110" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
       <c r="S110" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
@@ -6845,13 +6848,13 @@
         <v>37</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="3"/>
@@ -6861,19 +6864,19 @@
       <c r="K111" s="3"/>
       <c r="L111" s="7"/>
       <c r="M111" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="N111" t="s">
+        <v>529</v>
+      </c>
+      <c r="O111" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="N111" t="s">
-        <v>528</v>
-      </c>
-      <c r="O111" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
       <c r="S111" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
@@ -6888,13 +6891,13 @@
         <v>105</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="3"/>
@@ -6904,19 +6907,19 @@
       <c r="K112" s="3"/>
       <c r="L112" s="7"/>
       <c r="M112" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N112" t="s">
+        <v>533</v>
+      </c>
+      <c r="O112" s="10" t="s">
         <v>532</v>
-      </c>
-      <c r="O112" s="10" t="s">
-        <v>531</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
       <c r="S112" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
@@ -6931,13 +6934,13 @@
         <v>105</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="3"/>
@@ -6947,19 +6950,19 @@
       <c r="K113" s="3"/>
       <c r="L113" s="7"/>
       <c r="M113" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N113" t="s">
+        <v>537</v>
+      </c>
+      <c r="O113" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="O113" s="10" t="s">
-        <v>535</v>
       </c>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
       <c r="S113" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
@@ -6972,13 +6975,13 @@
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="3"/>
@@ -6988,19 +6991,19 @@
       <c r="K114" s="3"/>
       <c r="L114" s="7"/>
       <c r="M114" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O114" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
       <c r="S114" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
@@ -7013,13 +7016,13 @@
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="3"/>
@@ -7029,19 +7032,19 @@
       <c r="K115" s="3"/>
       <c r="L115" s="7"/>
       <c r="M115" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="N115" t="s">
+        <v>548</v>
+      </c>
+      <c r="O115" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="N115" t="s">
-        <v>547</v>
-      </c>
-      <c r="O115" s="9" t="s">
-        <v>545</v>
       </c>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
       <c r="S115" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
@@ -7053,16 +7056,16 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="3"/>
@@ -7072,19 +7075,19 @@
       <c r="K116" s="3"/>
       <c r="L116" s="7"/>
       <c r="M116" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="N116" t="s">
+        <v>553</v>
+      </c>
+      <c r="O116" s="10" t="s">
         <v>551</v>
-      </c>
-      <c r="N116" t="s">
-        <v>552</v>
-      </c>
-      <c r="O116" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
       <c r="S116" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
@@ -7097,13 +7100,13 @@
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="3"/>
@@ -7113,19 +7116,19 @@
       <c r="K117" s="3"/>
       <c r="L117" s="7"/>
       <c r="M117" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N117" t="s">
+        <v>558</v>
+      </c>
+      <c r="O117" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="O117" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
       <c r="S117" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
@@ -7138,13 +7141,13 @@
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="3"/>
@@ -7154,19 +7157,19 @@
       <c r="K118" s="3"/>
       <c r="L118" s="7"/>
       <c r="M118" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N118" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O118" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
       <c r="S118" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
@@ -7179,13 +7182,13 @@
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="3"/>
@@ -7195,19 +7198,19 @@
       <c r="K119" s="3"/>
       <c r="L119" s="7"/>
       <c r="M119" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N119" t="s">
+        <v>568</v>
+      </c>
+      <c r="O119" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="O119" s="10" t="s">
-        <v>566</v>
       </c>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
       <c r="S119" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
@@ -7219,16 +7222,16 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="3"/>
@@ -7238,19 +7241,19 @@
       <c r="K120" s="3"/>
       <c r="L120" s="7"/>
       <c r="M120" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N120" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
       <c r="S120" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
@@ -7263,13 +7266,13 @@
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="3"/>
@@ -7279,19 +7282,19 @@
       <c r="K121" s="3"/>
       <c r="L121" s="7"/>
       <c r="M121" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N121" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
       <c r="S121" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
@@ -7304,13 +7307,13 @@
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="3"/>
@@ -7320,19 +7323,19 @@
       <c r="K122" s="3"/>
       <c r="L122" s="7"/>
       <c r="M122" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="N122" t="s">
+        <v>585</v>
+      </c>
+      <c r="O122" s="10" t="s">
         <v>583</v>
-      </c>
-      <c r="N122" t="s">
-        <v>584</v>
-      </c>
-      <c r="O122" s="10" t="s">
-        <v>582</v>
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
       <c r="S122" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
@@ -7345,13 +7348,13 @@
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="3"/>
@@ -7361,19 +7364,19 @@
       <c r="K123" s="3"/>
       <c r="L123" s="7"/>
       <c r="M123" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N123" t="s">
+        <v>589</v>
+      </c>
+      <c r="O123" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="O123" s="10" t="s">
-        <v>587</v>
       </c>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
       <c r="S123" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
@@ -7385,16 +7388,16 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="3"/>
@@ -7404,19 +7407,19 @@
       <c r="K124" s="3"/>
       <c r="L124" s="7"/>
       <c r="M124" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="N124" t="s">
+        <v>594</v>
+      </c>
+      <c r="O124" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="N124" t="s">
-        <v>593</v>
-      </c>
-      <c r="O124" s="10" t="s">
-        <v>591</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
       <c r="S124" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
@@ -7428,16 +7431,16 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="3"/>
@@ -7447,19 +7450,19 @@
       <c r="K125" s="3"/>
       <c r="L125" s="7"/>
       <c r="M125" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N125" t="s">
+        <v>599</v>
+      </c>
+      <c r="O125" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="N125" t="s">
-        <v>598</v>
-      </c>
-      <c r="O125" s="10" t="s">
-        <v>596</v>
       </c>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
       <c r="S125" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
@@ -7471,16 +7474,16 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="3"/>
@@ -7490,19 +7493,19 @@
       <c r="K126" s="3"/>
       <c r="L126" s="7"/>
       <c r="M126" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="N126" t="s">
+        <v>604</v>
+      </c>
+      <c r="O126" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="N126" t="s">
-        <v>603</v>
-      </c>
-      <c r="O126" s="10" t="s">
-        <v>601</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
       <c r="S126" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
@@ -7514,16 +7517,16 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="3"/>
@@ -7533,19 +7536,19 @@
       <c r="K127" s="3"/>
       <c r="L127" s="7"/>
       <c r="M127" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="N127" t="s">
+        <v>609</v>
+      </c>
+      <c r="O127" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="N127" t="s">
-        <v>608</v>
-      </c>
-      <c r="O127" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
       <c r="S127" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
@@ -7558,13 +7561,13 @@
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="3"/>
@@ -7574,19 +7577,19 @@
       <c r="K128" s="3"/>
       <c r="L128" s="7"/>
       <c r="M128" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N128" t="s">
+        <v>614</v>
+      </c>
+      <c r="O128" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="O128" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
       <c r="S128" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
@@ -7598,16 +7601,16 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="3"/>
@@ -7617,19 +7620,19 @@
       <c r="K129" s="3"/>
       <c r="L129" s="7"/>
       <c r="M129" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="N129" t="s">
+        <v>619</v>
+      </c>
+      <c r="O129" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="N129" t="s">
-        <v>618</v>
-      </c>
-      <c r="O129" s="10" t="s">
-        <v>616</v>
       </c>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
       <c r="S129" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
@@ -7642,13 +7645,13 @@
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="3"/>
@@ -7658,19 +7661,19 @@
       <c r="K130" s="3"/>
       <c r="L130" s="7"/>
       <c r="M130" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N130" t="s">
+        <v>623</v>
+      </c>
+      <c r="O130" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="O130" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
       <c r="S130" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
@@ -7685,13 +7688,13 @@
         <v>50</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F131" s="10"/>
       <c r="G131" s="3"/>
@@ -7701,19 +7704,19 @@
       <c r="K131" s="3"/>
       <c r="L131" s="7"/>
       <c r="M131" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="N131" t="s">
+        <v>628</v>
+      </c>
+      <c r="O131" s="10" t="s">
         <v>626</v>
-      </c>
-      <c r="N131" t="s">
-        <v>627</v>
-      </c>
-      <c r="O131" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
       <c r="S131" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
@@ -7737,7 +7740,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="7"/>
       <c r="M132" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
@@ -7767,7 +7770,7 @@
       <c r="K133" s="3"/>
       <c r="L133" s="7"/>
       <c r="M133" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
@@ -7797,7 +7800,7 @@
       <c r="K134" s="3"/>
       <c r="L134" s="7"/>
       <c r="M134" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
@@ -7827,7 +7830,7 @@
       <c r="K135" s="3"/>
       <c r="L135" s="7"/>
       <c r="M135" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
